--- a/sample_git.xlsx
+++ b/sample_git.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">I have edirt this file </t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">something extra edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jklmklmlkm</t>
   </si>
   <si>
     <t xml:space="preserve">sadA LM</t>
@@ -113,8 +116,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,35 +145,40 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="0" t="s">
-        <v>5</v>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
